--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/FinalProject/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3295237-4E99-EE48-9BFA-C50307F442AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EBEE16-949F-354B-BAD4-EA7A5AAF43C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{2AF39BEA-C862-3B4F-8D82-1D3C05E9D328}"/>
+    <workbookView xWindow="9280" yWindow="2900" windowWidth="28040" windowHeight="17440" xr2:uid="{2AF39BEA-C862-3B4F-8D82-1D3C05E9D328}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>function</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>cashierngan001@gmail.com</t>
+  </si>
+  <si>
+    <t>loginFailWithNullPassword</t>
+  </si>
+  <si>
+    <t>loginFailWithFailPassword</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC6682E-4C6F-7241-BDF2-1320DD54BEDA}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,9 +442,27 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1E91912D-8C58-0F4B-B4AD-63C6F65D79BA}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4AE5EE98-EC41-DF4E-BB85-F121B38553E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/FinalProject/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EBEE16-949F-354B-BAD4-EA7A5AAF43C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4517F2-08B8-7343-A75C-B349CCBBEAA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9280" yWindow="2900" windowWidth="28040" windowHeight="17440" xr2:uid="{2AF39BEA-C862-3B4F-8D82-1D3C05E9D328}"/>
   </bookViews>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>function</t>
   </si>
@@ -36,16 +36,22 @@
   <si>
     <t>loginFailWithFailPassword</t>
   </si>
+  <si>
+    <t>loginSuccessWithCustomerAccount</t>
+  </si>
+  <si>
+    <t>customer@example.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,38 +62,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,24 +132,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,24 +154,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,37 +215,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,43 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,97 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,31 +410,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,17 +448,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,11 +466,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +509,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,130 +527,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -969,15 +975,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="33.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="24.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
@@ -1020,6 +1026,17 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>function</t>
   </si>
@@ -37,10 +37,10 @@
     <t>loginFailWithFailPassword</t>
   </si>
   <si>
-    <t>loginSuccessWithCustomerAccount</t>
+    <t>customer@example.com</t>
   </si>
   <si>
-    <t>customer@example.com</t>
+    <t>loginSuccessWithCustomerAccount</t>
   </si>
 </sst>
 </file>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -69,18 +121,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,60 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -154,6 +168,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -161,46 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +406,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,6 +439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -435,48 +459,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +480,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -506,18 +497,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,130 +527,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,7 +978,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1022,16 +1022,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="C4">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>123456</v>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>function</t>
   </si>
@@ -42,16 +42,22 @@
   <si>
     <t>loginSuccessWithCustomerAccount</t>
   </si>
+  <si>
+    <t>loginSuccessAdminPage</t>
+  </si>
+  <si>
+    <t>admin@example.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,60 +68,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,24 +122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +145,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -177,6 +162,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -191,16 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,16 +416,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,37 +473,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +496,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,27 +512,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,135 +533,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,13 +982,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="24.9090909090909" customWidth="1"/>
@@ -1040,7 +1047,21 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>123456</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="admin@example.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -34,7 +34,7 @@
     <t>loginFailWithNullPassword</t>
   </si>
   <si>
-    <t>loginFailWithFailPassword</t>
+    <t>loginFailWithIncorrectPassword</t>
   </si>
   <si>
     <t>customer@example.com</t>
@@ -53,11 +53,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,9 +79,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,6 +102,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +145,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -145,9 +161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,9 +170,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,15 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,29 +208,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +222,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +416,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,26 +479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,133 +537,134 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,13 +984,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="24.9090909090909" customWidth="1"/>
@@ -1058,6 +1060,9 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="11" spans="10:10">
+      <c r="J11" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="admin@example.com"/>
